--- a/Documentos/Diccionario de datos/Diccionario de datos.xlsx
+++ b/Documentos/Diccionario de datos/Diccionario de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-Requerimiento-II\Documentos\Diccionario de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2A90EB-7E9E-4BFA-943D-21660763A262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DADC6A-6627-485F-9C0F-9A3A57D804EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B54505E5-0177-436B-8101-A8AE96303CAA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="80">
   <si>
     <t>Diccionario de datos</t>
   </si>
@@ -41,29 +41,239 @@
     <t>Tipo de dato</t>
   </si>
   <si>
-    <t>Primary key</t>
-  </si>
-  <si>
-    <t>Foreign key</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
     <t>Procedimiento</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Parametros</t>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Llave primaria</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>IN/OUT</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>AdministratorRegisterMovie</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>MovieHasActor</t>
+  </si>
+  <si>
+    <t>MovieHasKeyword</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserCommentMovie</t>
+  </si>
+  <si>
+    <t>UserMarkMovie</t>
+  </si>
+  <si>
+    <t>UserRateMovie</t>
+  </si>
+  <si>
+    <t>idActor</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Varchar2</t>
+  </si>
+  <si>
+    <t>Llave primaria de la entidad Actor</t>
+  </si>
+  <si>
+    <t>idAdministrator</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Atributo nombre de actor</t>
+  </si>
+  <si>
+    <t>Llave primaria de la entidad administrator</t>
+  </si>
+  <si>
+    <t>Atributo contraseña de administrator.</t>
+  </si>
+  <si>
+    <t>idRegisterMovie</t>
+  </si>
+  <si>
+    <t>idMovie</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>idKeyword</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>calification</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>idMovieActor</t>
+  </si>
+  <si>
+    <t>idMovieKeyword</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>avaliability</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>idComment</t>
+  </si>
+  <si>
+    <t>dateComment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>idMark</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>idRate</t>
+  </si>
+  <si>
+    <t>Atributo nombre de usuario de administrador</t>
+  </si>
+  <si>
+    <t>Nombre del administrador</t>
+  </si>
+  <si>
+    <t>Correo del administrador</t>
+  </si>
+  <si>
+    <t>nombre del keyword</t>
+  </si>
+  <si>
+    <t>Genero de la película</t>
+  </si>
+  <si>
+    <t>Director de la película</t>
+  </si>
+  <si>
+    <t>Calificación de la película</t>
+  </si>
+  <si>
+    <t>Nombre de la película</t>
+  </si>
+  <si>
+    <t>Image de la película</t>
+  </si>
+  <si>
+    <t>Año de la película</t>
+  </si>
+  <si>
+    <t>Estado del usuario</t>
+  </si>
+  <si>
+    <t>Nombre del usuario</t>
+  </si>
+  <si>
+    <t>Username del usuario</t>
+  </si>
+  <si>
+    <t>Contraseña del usuario</t>
+  </si>
+  <si>
+    <t>Correo del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave primaria </t>
+  </si>
+  <si>
+    <t>Dia que se ejecutó el comentario</t>
+  </si>
+  <si>
+    <t>Commentario del usuario</t>
+  </si>
+  <si>
+    <t>Estado de la película, favorito o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave foránea </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +288,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,19 +312,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,53 +669,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80E29F-842B-49CE-AECF-FE34A31DD3AE}">
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -477,35 +1417,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25A7C6C-124C-4AFC-8363-6558E9B89258}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+    <row r="2" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Diccionario de datos/Diccionario de datos.xlsx
+++ b/Documentos/Diccionario de datos/Diccionario de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-Requerimiento-II\Documentos\Diccionario de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C534F04A-4570-4022-9B51-A837FB706E4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD440A0B-A31F-4DA6-A131-6BB065E9AF94}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B54505E5-0177-436B-8101-A8AE96303CAA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
   <si>
     <t>Diccionario de datos</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Estado de la película, favorito o no</t>
   </si>
   <si>
-    <t xml:space="preserve">Llave foránea </t>
-  </si>
-  <si>
     <t>blockUser</t>
   </si>
   <si>
@@ -492,13 +489,31 @@
   </si>
   <si>
     <t>pMovieName</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Llave foránea referencia a la tabla Actor</t>
+  </si>
+  <si>
+    <t>Llave foránea referencia a la tabla Movie</t>
+  </si>
+  <si>
+    <t>Llave foránea referencia a la tabla Administrator</t>
+  </si>
+  <si>
+    <t>Llave foránea referencia a la tabla Keyword</t>
+  </si>
+  <si>
+    <t>Llave foránea referencia a la tabla User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +535,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -558,25 +581,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,18 +627,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,732 +983,865 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80E29F-842B-49CE-AECF-FE34A31DD3AE}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="17">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="17">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="17">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="17">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17">
+        <v>100</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="17">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="17">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="17">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>78</v>
+      <c r="F12" s="17">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>78</v>
+      <c r="F13" s="17">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="17">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="17">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="17">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="17">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="17">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="17">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="17">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="17">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="4" t="s">
+      <c r="F24" s="17">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="F25" s="17">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="4" t="s">
+      <c r="F26" s="17">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="4" t="s">
+      <c r="F27" s="17">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
+      <c r="F28" s="17">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="17">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="17">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="4" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="17">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="17">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="17">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="17">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="4" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="4" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="17">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="4" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="4" t="s">
+      <c r="F38" s="17">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
+      <c r="F39" s="17">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="17">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="4" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="17">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="4" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="4" t="s">
+      <c r="F42" s="17">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
+      <c r="F43" s="17">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="17">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="4" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="4" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="4" t="s">
+      <c r="F46" s="17">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>78</v>
+      <c r="F47" s="17">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B14:B15"/>
@@ -1646,11 +1849,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B35:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1675,663 +1873,664 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4" t="s">
+      <c r="E34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4" t="s">
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="4" t="s">
+      <c r="E38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="4" t="s">
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>99</v>
+      <c r="E44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C44"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -2342,7 +2541,6 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2365,225 +2563,225 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>98</v>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
